--- a/EdNet_main.xlsx
+++ b/EdNet_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagairyousuke/Documents/kashima_lab/KnowledgeTracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E2DCD-D3F6-7343-8A92-083CFF569F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13475CF5-9966-3340-9B2E-60FA81F22501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="980" windowWidth="28300" windowHeight="17460" xr2:uid="{1A4786FA-9E30-1448-93E6-8800FD2668D2}"/>
+    <workbookView xWindow="2340" yWindow="-17340" windowWidth="30240" windowHeight="18880" xr2:uid="{1A4786FA-9E30-1448-93E6-8800FD2668D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUC↑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KL↓</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,6 +75,14 @@
   </si>
   <si>
     <t>Match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSELoss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soft Accuracy(y*p +(1-y)*(1-p))↑</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,29 +467,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276AA531-B484-A84D-B57A-C41D4905B7A8}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -564,70 +571,70 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.71970000000000001</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="C3">
-        <v>0.70250000000000001</v>
+        <v>0.69520000000000004</v>
       </c>
       <c r="D3">
-        <v>0.48359999999999997</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="E3">
-        <v>0.52449999999999997</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="F3">
         <v>0.71970000000000001</v>
       </c>
       <c r="G3">
-        <v>1.0996999999999999</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="H3">
-        <v>1.0764</v>
+        <v>1.0303</v>
       </c>
       <c r="I3">
-        <v>0.95420000000000005</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="J3">
-        <v>1.593</v>
+        <v>1.1207</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.67030000000000001</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="M3">
-        <v>0.67430000000000001</v>
+        <v>0.6825</v>
       </c>
       <c r="N3">
         <v>0.81740000000000002</v>
       </c>
       <c r="O3">
-        <v>9.4489999999999998</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P3">
-        <v>0.70509999999999995</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="Q3">
-        <v>0.7228</v>
+        <v>0.68259999999999998</v>
       </c>
       <c r="R3">
-        <v>0.71179999999999999</v>
+        <v>0.6855</v>
       </c>
       <c r="S3">
         <v>0.61080000000000001</v>
       </c>
       <c r="T3">
-        <v>0.59989999999999999</v>
+        <v>0.61619999999999997</v>
       </c>
       <c r="U3">
-        <v>0.67120000000000002</v>
+        <v>0.6744</v>
       </c>
       <c r="V3">
-        <v>0.90749999999999997</v>
+        <v>0.88839999999999997</v>
       </c>
       <c r="W3">
-        <v>0.90500000000000003</v>
+        <v>0.87929999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -635,70 +642,70 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.78380000000000005</v>
+        <v>0.72760000000000002</v>
       </c>
       <c r="C4">
-        <v>0.73829999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="D4">
         <v>0.55989999999999995</v>
       </c>
       <c r="E4">
-        <v>0.51539999999999997</v>
+        <v>0.441</v>
       </c>
       <c r="F4">
         <v>0.70950000000000002</v>
       </c>
       <c r="G4">
-        <v>1.0613999999999999</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="H4">
-        <v>1.0869</v>
+        <v>1.0215000000000001</v>
       </c>
       <c r="I4">
-        <v>0.91169999999999995</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="J4">
-        <v>1.1346000000000001</v>
+        <v>0.80720000000000003</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.61890000000000001</v>
+        <v>0.64280000000000004</v>
       </c>
       <c r="M4">
-        <v>0.58540000000000003</v>
+        <v>0.61809999999999998</v>
       </c>
       <c r="N4">
         <v>0.7782</v>
       </c>
       <c r="O4">
-        <v>10.700200000000001</v>
+        <v>9.9138999999999999</v>
       </c>
       <c r="P4">
-        <v>0.63849999999999996</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.74780000000000002</v>
+        <v>0.7117</v>
       </c>
       <c r="R4">
-        <v>0.75419999999999998</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="S4">
         <v>0.62560000000000004</v>
       </c>
       <c r="T4">
-        <v>0.60350000000000004</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="U4">
-        <v>0.7016</v>
+        <v>0.70650000000000002</v>
       </c>
       <c r="V4">
-        <v>0.86680000000000001</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="W4">
-        <v>0.85809999999999997</v>
+        <v>0.85070000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -739,16 +746,6 @@
     <row r="12" spans="1:23">
       <c r="A12">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
